--- a/biology/Médecine/MG_France/MG_France.xlsx
+++ b/biology/Médecine/MG_France/MG_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MG France est le nom usuel de la Fédération française des médecins généralistes[1], c'est un syndicat français de médecins généralistes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MG France est le nom usuel de la Fédération française des médecins généralistes, c'est un syndicat français de médecins généralistes.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MG France est créé en 1986 par le Docteur Richard  Bouton. Il est issu d'une scission des généralistes autonomistes de la CSMF[2].
-Il est l'héritier du Mouvement d'Action Généraliste[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MG France est créé en 1986 par le Docteur Richard  Bouton. Il est issu d'une scission des généralistes autonomistes de la CSMF.
+Il est l'héritier du Mouvement d'Action Généraliste.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'un des 4 syndicats signataires de la convention médicale.
 </t>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,7 +618,9 @@
           <t>Représentativité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">MG France est reconnu représentatif en 1989.
 MG France est redevenu aux dernières élections professionnelles 2006 le 1er syndicat de médecins généralistes français, avec 31,39 % des voix, contre 25,82 % pour la CSMF.
@@ -632,7 +652,9 @@
           <t>Thématiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Médecine générale
 Médecin traitant
@@ -640,7 +662,7 @@
 Santé numérique
 ROSP
 Nomenclature générale des actes professionnels
-Prise de rendez-vous en ligne[4]</t>
+Prise de rendez-vous en ligne</t>
         </is>
       </c>
     </row>
